--- a/10-19-25 to 10-25-25 Madison Schedule.xlsx
+++ b/10-19-25 to 10-25-25 Madison Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y72"/>
+  <dimension ref="A1:Y74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1789,12 +1789,13 @@
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>Caitlin</t>
+          <t>Andrew</t>
         </is>
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+1st Day, work w/ Leyna</t>
         </is>
       </c>
       <c r="T26" t="inlineStr"/>
@@ -1862,7 +1863,7 @@
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>Carlie</t>
+          <t>Caitlin</t>
         </is>
       </c>
       <c r="S27" t="inlineStr">
@@ -1933,12 +1934,13 @@
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>Cynthia</t>
+          <t>Carlie</t>
         </is>
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Trainer</t>
         </is>
       </c>
       <c r="T28" t="inlineStr"/>
@@ -1949,12 +1951,13 @@
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>Andrew</t>
         </is>
       </c>
       <c r="W28" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+2nd Day, work w/ Leyna</t>
         </is>
       </c>
       <c r="X28" t="inlineStr"/>
@@ -2004,7 +2007,7 @@
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>DJ</t>
+          <t>Cynthia</t>
         </is>
       </c>
       <c r="S29" t="inlineStr">
@@ -2020,7 +2023,7 @@
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>Katelyn</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="W29" t="inlineStr">
@@ -2071,7 +2074,7 @@
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>Leyna</t>
+          <t>DJ</t>
         </is>
       </c>
       <c r="S30" t="inlineStr">
@@ -2087,7 +2090,7 @@
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>Leyna</t>
+          <t>Katelyn</t>
         </is>
       </c>
       <c r="W30" t="inlineStr">
@@ -2150,12 +2153,13 @@
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>Pamela</t>
+          <t>Eric</t>
         </is>
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+1st Scan, work w/ Carlie</t>
         </is>
       </c>
       <c r="T31" t="inlineStr"/>
@@ -2166,12 +2170,13 @@
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>Sophia</t>
+          <t>Leyna</t>
         </is>
       </c>
       <c r="W31" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Trainer</t>
         </is>
       </c>
       <c r="X31" t="inlineStr"/>
@@ -2229,18 +2234,31 @@
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Leyna</t>
         </is>
       </c>
       <c r="S32" t="inlineStr">
         <is>
+          <t>@ Store,
+Trainer</t>
+        </is>
+      </c>
+      <c r="T32" t="inlineStr"/>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>16)</t>
+        </is>
+      </c>
+      <c r="V32" t="inlineStr">
+        <is>
+          <t>Sophia</t>
+        </is>
+      </c>
+      <c r="W32" t="inlineStr">
+        <is>
           <t>@ Store</t>
         </is>
       </c>
-      <c r="T32" t="inlineStr"/>
-      <c r="U32" t="inlineStr"/>
-      <c r="V32" t="inlineStr"/>
-      <c r="W32" t="inlineStr"/>
       <c r="X32" t="inlineStr"/>
       <c r="Y32" t="inlineStr"/>
     </row>
@@ -2289,9 +2307,21 @@
         </is>
       </c>
       <c r="P33" t="inlineStr"/>
-      <c r="Q33" t="inlineStr"/>
-      <c r="R33" t="inlineStr"/>
-      <c r="S33" t="inlineStr"/>
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>18)</t>
+        </is>
+      </c>
+      <c r="R33" t="inlineStr">
+        <is>
+          <t>Paul</t>
+        </is>
+      </c>
+      <c r="S33" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T33" t="inlineStr"/>
       <c r="U33" t="inlineStr"/>
       <c r="V33" t="inlineStr"/>
@@ -2376,11 +2406,7 @@
       </c>
       <c r="P35" t="inlineStr"/>
       <c r="Q35" t="inlineStr"/>
-      <c r="R35" t="inlineStr">
-        <is>
-          <t>6:30 AM START</t>
-        </is>
-      </c>
+      <c r="R35" t="inlineStr"/>
       <c r="S35" t="inlineStr"/>
       <c r="T35" t="inlineStr"/>
       <c r="U35" t="inlineStr"/>
@@ -2429,7 +2455,7 @@
       <c r="Q36" t="inlineStr"/>
       <c r="R36" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>6:30 AM START</t>
         </is>
       </c>
       <c r="S36" t="inlineStr"/>
@@ -2476,7 +2502,7 @@
       <c r="Q37" t="inlineStr"/>
       <c r="R37" t="inlineStr">
         <is>
-          <t>FESTIVAL #2766, GREEN BAY-EAST - LIFO</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="S37" t="inlineStr"/>
@@ -2535,7 +2561,7 @@
       <c r="Q38" t="inlineStr"/>
       <c r="R38" t="inlineStr">
         <is>
-          <t>2534 STEFFENS COURT</t>
+          <t>FESTIVAL #2766, GREEN BAY-EAST - LIFO</t>
         </is>
       </c>
       <c r="S38" t="inlineStr"/>
@@ -2590,7 +2616,7 @@
       <c r="Q39" t="inlineStr"/>
       <c r="R39" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/4B2KAMxXfBH2</t>
+          <t>2534 STEFFENS COURT</t>
         </is>
       </c>
       <c r="S39" t="inlineStr"/>
@@ -2637,7 +2663,7 @@
       <c r="Q40" t="inlineStr"/>
       <c r="R40" t="inlineStr">
         <is>
-          <t xml:space="preserve">PARTIAL RESET-REMAPPED </t>
+          <t>https://goo.gl/maps/4B2KAMxXfBH2</t>
         </is>
       </c>
       <c r="S40" t="inlineStr"/>
@@ -2672,7 +2698,7 @@
       <c r="Q41" t="inlineStr"/>
       <c r="R41" t="inlineStr">
         <is>
-          <t>4:45 am meet for Sarah &amp; Lori at Pig Beaver Dam</t>
+          <t xml:space="preserve">PARTIAL RESET-REMAPPED </t>
         </is>
       </c>
       <c r="S41" t="inlineStr"/>
@@ -2709,7 +2735,11 @@
       <c r="O42" t="inlineStr"/>
       <c r="P42" t="inlineStr"/>
       <c r="Q42" t="inlineStr"/>
-      <c r="R42" t="inlineStr"/>
+      <c r="R42" t="inlineStr">
+        <is>
+          <t>4:45 am meet for Sarah &amp; Lori at Pig Beaver Dam</t>
+        </is>
+      </c>
       <c r="S42" t="inlineStr"/>
       <c r="T42" t="inlineStr"/>
       <c r="U42" t="inlineStr"/>
@@ -2743,21 +2773,9 @@
       </c>
       <c r="O43" t="inlineStr"/>
       <c r="P43" t="inlineStr"/>
-      <c r="Q43" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="R43" t="inlineStr">
-        <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="S43" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="Q43" t="inlineStr"/>
+      <c r="R43" t="inlineStr"/>
+      <c r="S43" t="inlineStr"/>
       <c r="T43" t="inlineStr"/>
       <c r="U43" t="inlineStr"/>
       <c r="V43" t="inlineStr"/>
@@ -2805,17 +2823,17 @@
       <c r="P44" t="inlineStr"/>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Kim</t>
         </is>
       </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t>Driver 1/2</t>
+          <t>@ Store, Equip</t>
         </is>
       </c>
       <c r="T44" t="inlineStr"/>
@@ -2860,12 +2878,12 @@
       <c r="P45" t="inlineStr"/>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="S45" t="inlineStr">
@@ -2915,17 +2933,17 @@
       <c r="P46" t="inlineStr"/>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>Ariel</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="S46" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>Driver 1/2</t>
         </is>
       </c>
       <c r="T46" t="inlineStr"/>
@@ -2975,12 +2993,12 @@
       <c r="P47" t="inlineStr"/>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t xml:space="preserve">Dan </t>
+          <t>Ariel</t>
         </is>
       </c>
       <c r="S47" t="inlineStr">
@@ -3034,12 +3052,12 @@
       <c r="P48" t="inlineStr"/>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>Greg</t>
+          <t xml:space="preserve">Dan </t>
         </is>
       </c>
       <c r="S48" t="inlineStr">
@@ -3073,12 +3091,12 @@
       <c r="P49" t="inlineStr"/>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="R49" t="inlineStr">
         <is>
-          <t>Jeremiah</t>
+          <t>Greg</t>
         </is>
       </c>
       <c r="S49" t="inlineStr">
@@ -3136,12 +3154,12 @@
       <c r="P50" t="inlineStr"/>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="R50" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Jeremiah</t>
         </is>
       </c>
       <c r="S50" t="inlineStr">
@@ -3195,12 +3213,12 @@
       <c r="P51" t="inlineStr"/>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="R51" t="inlineStr">
         <is>
-          <t>Jerry S</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="S51" t="inlineStr">
@@ -3246,12 +3264,12 @@
       <c r="P52" t="inlineStr"/>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="R52" t="inlineStr">
         <is>
-          <t>Katie</t>
+          <t>Jerry S</t>
         </is>
       </c>
       <c r="S52" t="inlineStr">
@@ -3302,12 +3320,12 @@
       <c r="P53" t="inlineStr"/>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="R53" t="inlineStr">
         <is>
-          <t>Kirsten</t>
+          <t>Katie</t>
         </is>
       </c>
       <c r="S53" t="inlineStr">
@@ -3361,12 +3379,12 @@
       <c r="P54" t="inlineStr"/>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="R54" t="inlineStr">
         <is>
-          <t>Mai</t>
+          <t>Kirsten</t>
         </is>
       </c>
       <c r="S54" t="inlineStr">
@@ -3408,12 +3426,12 @@
       <c r="P55" t="inlineStr"/>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>13)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="R55" t="inlineStr">
         <is>
-          <t>Marcia</t>
+          <t>Mai</t>
         </is>
       </c>
       <c r="S55" t="inlineStr">
@@ -3455,12 +3473,12 @@
       <c r="P56" t="inlineStr"/>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>14)</t>
+          <t>13)</t>
         </is>
       </c>
       <c r="R56" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>Marcia</t>
         </is>
       </c>
       <c r="S56" t="inlineStr">
@@ -3498,12 +3516,12 @@
       <c r="P57" t="inlineStr"/>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>15)</t>
+          <t>14)</t>
         </is>
       </c>
       <c r="R57" t="inlineStr">
         <is>
-          <t>Nagui</t>
+          <t>Monica</t>
         </is>
       </c>
       <c r="S57" t="inlineStr">
@@ -3553,12 +3571,12 @@
       <c r="P58" t="inlineStr"/>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>16)</t>
+          <t>15)</t>
         </is>
       </c>
       <c r="R58" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Nagui</t>
         </is>
       </c>
       <c r="S58" t="inlineStr">
@@ -3602,9 +3620,21 @@
       </c>
       <c r="O59" t="inlineStr"/>
       <c r="P59" t="inlineStr"/>
-      <c r="Q59" t="inlineStr"/>
-      <c r="R59" t="inlineStr"/>
-      <c r="S59" t="inlineStr"/>
+      <c r="Q59" t="inlineStr">
+        <is>
+          <t>16)</t>
+        </is>
+      </c>
+      <c r="R59" t="inlineStr">
+        <is>
+          <t>Pamela</t>
+        </is>
+      </c>
+      <c r="S59" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T59" t="inlineStr"/>
       <c r="U59" t="inlineStr"/>
       <c r="V59" t="inlineStr"/>
@@ -3637,9 +3667,21 @@
       <c r="N60" t="inlineStr"/>
       <c r="O60" t="inlineStr"/>
       <c r="P60" t="inlineStr"/>
-      <c r="Q60" t="inlineStr"/>
-      <c r="R60" t="inlineStr"/>
-      <c r="S60" t="inlineStr"/>
+      <c r="Q60" t="inlineStr">
+        <is>
+          <t>17)</t>
+        </is>
+      </c>
+      <c r="R60" t="inlineStr">
+        <is>
+          <t>Sonia</t>
+        </is>
+      </c>
+      <c r="S60" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T60" t="inlineStr"/>
       <c r="U60" t="inlineStr"/>
       <c r="V60" t="inlineStr"/>
@@ -3685,11 +3727,7 @@
       </c>
       <c r="P61" t="inlineStr"/>
       <c r="Q61" t="inlineStr"/>
-      <c r="R61" t="inlineStr">
-        <is>
-          <t>6:30 AM START</t>
-        </is>
-      </c>
+      <c r="R61" t="inlineStr"/>
       <c r="S61" t="inlineStr"/>
       <c r="T61" t="inlineStr"/>
       <c r="U61" t="inlineStr"/>
@@ -3732,11 +3770,7 @@
       <c r="O62" t="inlineStr"/>
       <c r="P62" t="inlineStr"/>
       <c r="Q62" t="inlineStr"/>
-      <c r="R62" t="inlineStr">
-        <is>
-          <t>MODAS-SCAN</t>
-        </is>
-      </c>
+      <c r="R62" t="inlineStr"/>
       <c r="S62" t="inlineStr"/>
       <c r="T62" t="inlineStr"/>
       <c r="U62" t="inlineStr"/>
@@ -3781,7 +3815,7 @@
       <c r="Q63" t="inlineStr"/>
       <c r="R63" t="inlineStr">
         <is>
-          <t>KELLEY #30, PERRYVILLE MOBIL, ROCKFORD</t>
+          <t>6:30 AM START</t>
         </is>
       </c>
       <c r="S63" t="inlineStr"/>
@@ -3820,7 +3854,7 @@
       <c r="Q64" t="inlineStr"/>
       <c r="R64" t="inlineStr">
         <is>
-          <t>3251 N PERRYVILLE RD</t>
+          <t>MODAS-SCAN</t>
         </is>
       </c>
       <c r="S64" t="inlineStr"/>
@@ -3859,7 +3893,7 @@
       <c r="Q65" t="inlineStr"/>
       <c r="R65" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/9WqWnwwgzV92</t>
+          <t>KELLEY #30, PERRYVILLE MOBIL, ROCKFORD</t>
         </is>
       </c>
       <c r="S65" t="inlineStr"/>
@@ -3898,7 +3932,7 @@
       <c r="Q66" t="inlineStr"/>
       <c r="R66" t="inlineStr">
         <is>
-          <t xml:space="preserve">Please be careful to scan only product barcodes, and not the shelf scan tags </t>
+          <t>3251 N PERRYVILLE RD</t>
         </is>
       </c>
       <c r="S66" t="inlineStr"/>
@@ -3927,7 +3961,11 @@
       <c r="O67" t="inlineStr"/>
       <c r="P67" t="inlineStr"/>
       <c r="Q67" t="inlineStr"/>
-      <c r="R67" t="inlineStr"/>
+      <c r="R67" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/9WqWnwwgzV92</t>
+        </is>
+      </c>
       <c r="S67" t="inlineStr"/>
       <c r="T67" t="inlineStr"/>
       <c r="U67" t="inlineStr"/>
@@ -3953,21 +3991,13 @@
       <c r="N68" t="inlineStr"/>
       <c r="O68" t="inlineStr"/>
       <c r="P68" t="inlineStr"/>
-      <c r="Q68" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="Q68" t="inlineStr"/>
       <c r="R68" t="inlineStr">
         <is>
-          <t>Mike G</t>
-        </is>
-      </c>
-      <c r="S68" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+          <t xml:space="preserve">Please be careful to scan only product barcodes, and not the shelf scan tags </t>
+        </is>
+      </c>
+      <c r="S68" t="inlineStr"/>
       <c r="T68" t="inlineStr"/>
       <c r="U68" t="inlineStr"/>
       <c r="V68" t="inlineStr"/>
@@ -3992,16 +4022,8 @@
       <c r="N69" t="inlineStr"/>
       <c r="O69" t="inlineStr"/>
       <c r="P69" t="inlineStr"/>
-      <c r="Q69" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="R69" t="inlineStr">
-        <is>
-          <t>Emily L</t>
-        </is>
-      </c>
+      <c r="Q69" t="inlineStr"/>
+      <c r="R69" t="inlineStr"/>
       <c r="S69" t="inlineStr"/>
       <c r="T69" t="inlineStr"/>
       <c r="U69" t="inlineStr"/>
@@ -4029,15 +4051,19 @@
       <c r="P70" t="inlineStr"/>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="R70" t="inlineStr">
         <is>
-          <t>Joseph</t>
-        </is>
-      </c>
-      <c r="S70" t="inlineStr"/>
+          <t>Mike G</t>
+        </is>
+      </c>
+      <c r="S70" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="T70" t="inlineStr"/>
       <c r="U70" t="inlineStr"/>
       <c r="V70" t="inlineStr"/>
@@ -4064,12 +4090,12 @@
       <c r="P71" t="inlineStr"/>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R71" t="inlineStr">
         <is>
-          <t>Laci</t>
+          <t>Emily L</t>
         </is>
       </c>
       <c r="S71" t="inlineStr"/>
@@ -4099,12 +4125,12 @@
       <c r="P72" t="inlineStr"/>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="R72" t="inlineStr">
         <is>
-          <t>Tina E</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="S72" t="inlineStr"/>
@@ -4115,6 +4141,76 @@
       <c r="X72" t="inlineStr"/>
       <c r="Y72" t="inlineStr"/>
     </row>
+    <row r="73">
+      <c r="A73" t="inlineStr"/>
+      <c r="B73" t="inlineStr"/>
+      <c r="C73" t="inlineStr"/>
+      <c r="D73" t="inlineStr"/>
+      <c r="E73" t="inlineStr"/>
+      <c r="F73" t="inlineStr"/>
+      <c r="G73" t="inlineStr"/>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="inlineStr"/>
+      <c r="O73" t="inlineStr"/>
+      <c r="P73" t="inlineStr"/>
+      <c r="Q73" t="inlineStr">
+        <is>
+          <t>4)</t>
+        </is>
+      </c>
+      <c r="R73" t="inlineStr">
+        <is>
+          <t>Laci</t>
+        </is>
+      </c>
+      <c r="S73" t="inlineStr"/>
+      <c r="T73" t="inlineStr"/>
+      <c r="U73" t="inlineStr"/>
+      <c r="V73" t="inlineStr"/>
+      <c r="W73" t="inlineStr"/>
+      <c r="X73" t="inlineStr"/>
+      <c r="Y73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr"/>
+      <c r="B74" t="inlineStr"/>
+      <c r="C74" t="inlineStr"/>
+      <c r="D74" t="inlineStr"/>
+      <c r="E74" t="inlineStr"/>
+      <c r="F74" t="inlineStr"/>
+      <c r="G74" t="inlineStr"/>
+      <c r="H74" t="inlineStr"/>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="inlineStr"/>
+      <c r="O74" t="inlineStr"/>
+      <c r="P74" t="inlineStr"/>
+      <c r="Q74" t="inlineStr">
+        <is>
+          <t>5)</t>
+        </is>
+      </c>
+      <c r="R74" t="inlineStr">
+        <is>
+          <t>Tina E</t>
+        </is>
+      </c>
+      <c r="S74" t="inlineStr"/>
+      <c r="T74" t="inlineStr"/>
+      <c r="U74" t="inlineStr"/>
+      <c r="V74" t="inlineStr"/>
+      <c r="W74" t="inlineStr"/>
+      <c r="X74" t="inlineStr"/>
+      <c r="Y74" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/10-19-25 to 10-25-25 Madison Schedule.xlsx
+++ b/10-19-25 to 10-25-25 Madison Schedule.xlsx
@@ -1061,7 +1061,7 @@
       <c r="O16" t="inlineStr">
         <is>
           <t>@ Store,
-Camry 3, Equip</t>
+Red Camry, Equip</t>
         </is>
       </c>
       <c r="P16" t="inlineStr"/>
@@ -1674,7 +1674,7 @@
       <c r="W24" t="inlineStr">
         <is>
           <t>Driver, 1/2
-Camry 3</t>
+Red Camry</t>
         </is>
       </c>
       <c r="X24" t="inlineStr"/>
@@ -1812,7 +1812,7 @@
       <c r="W26" t="inlineStr">
         <is>
           <t>Driver, 1/2
-Camry 3,
+Red Camry,
 Trainer</t>
         </is>
       </c>
@@ -2472,7 +2472,11 @@
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr"/>
-      <c r="F37" t="inlineStr"/>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>*Bri / Nate get Camry 3 over to Buttitas after the store please</t>
+        </is>
+      </c>
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
@@ -2518,21 +2522,9 @@
       <c r="B38" t="inlineStr"/>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr"/>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>Bri</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr">
@@ -2579,15 +2571,19 @@
       <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Nate</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr"/>
+          <t>Bri</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr">
@@ -2632,9 +2628,21 @@
       <c r="B40" t="inlineStr"/>
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr"/>
-      <c r="E40" t="inlineStr"/>
-      <c r="F40" t="inlineStr"/>
-      <c r="G40" t="inlineStr"/>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Nate</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Use Camry 3</t>
+        </is>
+      </c>
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr">
@@ -2715,11 +2723,7 @@
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr"/>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>6:30 AM START</t>
-        </is>
-      </c>
+      <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
@@ -2756,7 +2760,7 @@
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr">
         <is>
-          <t>MODAS-SCAN</t>
+          <t>6:30 AM START</t>
         </is>
       </c>
       <c r="G43" t="inlineStr"/>
@@ -2791,7 +2795,7 @@
       <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr">
         <is>
-          <t>KELLEY #64, CORTLAND MOBIL</t>
+          <t>MODAS-SCAN</t>
         </is>
       </c>
       <c r="G44" t="inlineStr"/>
@@ -2809,7 +2813,7 @@
       <c r="K44" t="inlineStr">
         <is>
           <t>@ Store,
-Camry 3, Equip</t>
+Gray Van, Equip</t>
         </is>
       </c>
       <c r="L44" t="inlineStr"/>
@@ -2851,7 +2855,7 @@
       <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr">
         <is>
-          <t>15 W LINCOLN HWY</t>
+          <t>KELLEY #64, CORTLAND MOBIL</t>
         </is>
       </c>
       <c r="G45" t="inlineStr"/>
@@ -2906,7 +2910,7 @@
       <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/J3eqmpHTTNT2</t>
+          <t>15 W LINCOLN HWY</t>
         </is>
       </c>
       <c r="G46" t="inlineStr"/>
@@ -2961,7 +2965,7 @@
       <c r="E47" t="inlineStr"/>
       <c r="F47" t="inlineStr">
         <is>
-          <t xml:space="preserve">Please be careful to scan only product barcodes, and not the shelf scan tags </t>
+          <t>https://goo.gl/maps/J3eqmpHTTNT2</t>
         </is>
       </c>
       <c r="G47" t="inlineStr"/>
@@ -3021,7 +3025,7 @@
       <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr">
         <is>
-          <t xml:space="preserve">*IL Meet is 5:30 am at IL office  </t>
+          <t xml:space="preserve">Please be careful to scan only product barcodes, and not the shelf scan tags </t>
         </is>
       </c>
       <c r="G48" t="inlineStr"/>
@@ -3078,7 +3082,11 @@
       <c r="C49" t="inlineStr"/>
       <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr"/>
-      <c r="F49" t="inlineStr"/>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">*IL Meet is 5:30 am at IL office  </t>
+        </is>
+      </c>
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
@@ -3116,21 +3124,9 @@
       <c r="B50" t="inlineStr"/>
       <c r="C50" t="inlineStr"/>
       <c r="D50" t="inlineStr"/>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>Mike G</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" t="inlineStr"/>
+      <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -3181,15 +3177,19 @@
       <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Emily L</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr"/>
+          <t>Mike G</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr">
@@ -3240,12 +3240,12 @@
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Emily L</t>
         </is>
       </c>
       <c r="G52" t="inlineStr"/>
@@ -3291,20 +3291,15 @@
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Michael N</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>Driver,
-Red Camry</t>
-        </is>
-      </c>
+          <t>Eva</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr">
@@ -3347,17 +3342,18 @@
       <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Tina E</t>
+          <t>Michael N</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>Driver,
+Red Camry</t>
         </is>
       </c>
       <c r="H54" t="inlineStr"/>
@@ -3404,9 +3400,21 @@
       <c r="B55" t="inlineStr"/>
       <c r="C55" t="inlineStr"/>
       <c r="D55" t="inlineStr"/>
-      <c r="E55" t="inlineStr"/>
-      <c r="F55" t="inlineStr"/>
-      <c r="G55" t="inlineStr"/>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>5)</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Tina E</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr">

--- a/10-19-25 to 10-25-25 Madison Schedule.xlsx
+++ b/10-19-25 to 10-25-25 Madison Schedule.xlsx
@@ -910,7 +910,7 @@
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr">
         <is>
-          <t>*IL Meet is 3:15 am at IL office</t>
+          <t>*IL Meet is 3:30 am at IL office</t>
         </is>
       </c>
       <c r="K13" t="inlineStr"/>
@@ -3618,7 +3618,11 @@
           <t>Emily L</t>
         </is>
       </c>
-      <c r="K59" t="inlineStr"/>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>Until 8:45</t>
+        </is>
+      </c>
       <c r="L59" t="inlineStr"/>
       <c r="M59" t="inlineStr"/>
       <c r="N59" t="inlineStr">

--- a/10-19-25 to 10-25-25 Madison Schedule.xlsx
+++ b/10-19-25 to 10-25-25 Madison Schedule.xlsx
@@ -422,17 +422,13 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Sun, Oct 19</t>
-        </is>
-      </c>
+      <c r="A1" t="inlineStr"/>
       <c r="B1" t="inlineStr"/>
       <c r="C1" t="inlineStr"/>
       <c r="D1" t="inlineStr"/>
       <c r="E1" t="inlineStr">
         <is>
-          <t>Mon, Oct 20</t>
+          <t>Sun, Dec 31</t>
         </is>
       </c>
       <c r="F1" t="inlineStr"/>
@@ -440,7 +436,7 @@
       <c r="H1" t="inlineStr"/>
       <c r="I1" t="inlineStr">
         <is>
-          <t>Tue, Oct 21</t>
+          <t>Mon, Jan 1</t>
         </is>
       </c>
       <c r="J1" t="inlineStr"/>
@@ -448,7 +444,7 @@
       <c r="L1" t="inlineStr"/>
       <c r="M1" t="inlineStr">
         <is>
-          <t>Wed, Oct 22</t>
+          <t>Tue, Jan 2</t>
         </is>
       </c>
       <c r="N1" t="inlineStr"/>
@@ -456,7 +452,7 @@
       <c r="P1" t="inlineStr"/>
       <c r="Q1" t="inlineStr">
         <is>
-          <t>Thu, Oct 23</t>
+          <t>Wed, Jan 3</t>
         </is>
       </c>
       <c r="R1" t="inlineStr"/>
@@ -464,7 +460,7 @@
       <c r="T1" t="inlineStr"/>
       <c r="U1" t="inlineStr">
         <is>
-          <t>Fri, Oct 24</t>
+          <t>Thu, Jan 4</t>
         </is>
       </c>
       <c r="V1" t="inlineStr"/>
@@ -472,7 +468,7 @@
       <c r="X1" t="inlineStr"/>
       <c r="Y1" t="inlineStr">
         <is>
-          <t>Sat, Oct 25</t>
+          <t>Fri, Jan 5</t>
         </is>
       </c>
     </row>

--- a/10-19-25 to 10-25-25 Madison Schedule.xlsx
+++ b/10-19-25 to 10-25-25 Madison Schedule.xlsx
@@ -422,13 +422,17 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr"/>
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Sun, Oct 19</t>
+        </is>
+      </c>
       <c r="B1" t="inlineStr"/>
       <c r="C1" t="inlineStr"/>
       <c r="D1" t="inlineStr"/>
       <c r="E1" t="inlineStr">
         <is>
-          <t>Sun, Dec 31</t>
+          <t>Mon, Oct 20</t>
         </is>
       </c>
       <c r="F1" t="inlineStr"/>
@@ -436,7 +440,7 @@
       <c r="H1" t="inlineStr"/>
       <c r="I1" t="inlineStr">
         <is>
-          <t>Mon, Jan 1</t>
+          <t>Tue, Oct 21</t>
         </is>
       </c>
       <c r="J1" t="inlineStr"/>
@@ -444,7 +448,7 @@
       <c r="L1" t="inlineStr"/>
       <c r="M1" t="inlineStr">
         <is>
-          <t>Tue, Jan 2</t>
+          <t>Wed, Oct 22</t>
         </is>
       </c>
       <c r="N1" t="inlineStr"/>
@@ -452,7 +456,7 @@
       <c r="P1" t="inlineStr"/>
       <c r="Q1" t="inlineStr">
         <is>
-          <t>Wed, Jan 3</t>
+          <t>Thu, Oct 23</t>
         </is>
       </c>
       <c r="R1" t="inlineStr"/>
@@ -460,7 +464,7 @@
       <c r="T1" t="inlineStr"/>
       <c r="U1" t="inlineStr">
         <is>
-          <t>Thu, Jan 4</t>
+          <t>Fri, Oct 24</t>
         </is>
       </c>
       <c r="V1" t="inlineStr"/>
@@ -468,7 +472,7 @@
       <c r="X1" t="inlineStr"/>
       <c r="Y1" t="inlineStr">
         <is>
-          <t>Fri, Jan 5</t>
+          <t>Sat, Oct 25</t>
         </is>
       </c>
     </row>
@@ -3057,12 +3061,12 @@
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t xml:space="preserve">Dan </t>
+          <t>Celina</t>
         </is>
       </c>
       <c r="S48" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store, work w/ Jerry D</t>
         </is>
       </c>
       <c r="T48" t="inlineStr"/>
@@ -3100,7 +3104,7 @@
       </c>
       <c r="R49" t="inlineStr">
         <is>
-          <t>Greg</t>
+          <t xml:space="preserve">Dan </t>
         </is>
       </c>
       <c r="S49" t="inlineStr">
@@ -3151,7 +3155,7 @@
       </c>
       <c r="R50" t="inlineStr">
         <is>
-          <t>Jeremiah</t>
+          <t>Greg</t>
         </is>
       </c>
       <c r="S50" t="inlineStr">
@@ -3214,7 +3218,7 @@
       </c>
       <c r="R51" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Jeremiah</t>
         </is>
       </c>
       <c r="S51" t="inlineStr">
@@ -3265,12 +3269,12 @@
       </c>
       <c r="R52" t="inlineStr">
         <is>
-          <t>Jerry S</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="S52" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store, Trainer</t>
         </is>
       </c>
       <c r="T52" t="inlineStr"/>
@@ -3316,7 +3320,7 @@
       </c>
       <c r="R53" t="inlineStr">
         <is>
-          <t>Katie</t>
+          <t>Jerry S</t>
         </is>
       </c>
       <c r="S53" t="inlineStr">
@@ -3376,7 +3380,7 @@
       </c>
       <c r="R54" t="inlineStr">
         <is>
-          <t>Kirsten</t>
+          <t>Katie</t>
         </is>
       </c>
       <c r="S54" t="inlineStr">
@@ -3435,7 +3439,7 @@
       </c>
       <c r="R55" t="inlineStr">
         <is>
-          <t>Mai</t>
+          <t>Kirsten</t>
         </is>
       </c>
       <c r="S55" t="inlineStr">
@@ -3482,7 +3486,7 @@
       </c>
       <c r="R56" t="inlineStr">
         <is>
-          <t>Marcia</t>
+          <t>Mai</t>
         </is>
       </c>
       <c r="S56" t="inlineStr">
@@ -3525,7 +3529,7 @@
       </c>
       <c r="R57" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>Marcia</t>
         </is>
       </c>
       <c r="S57" t="inlineStr">

--- a/10-19-25 to 10-25-25 Madison Schedule.xlsx
+++ b/10-19-25 to 10-25-25 Madison Schedule.xlsx
@@ -2353,7 +2353,7 @@
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>Cynthia</t>
+          <t>Celina</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
@@ -2396,7 +2396,7 @@
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Cynthia</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
@@ -2443,7 +2443,7 @@
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>Katelyn</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
@@ -2494,7 +2494,7 @@
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>Katherine</t>
+          <t>Katelyn</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
@@ -2541,7 +2541,7 @@
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>Lexi</t>
+          <t>Katherine</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
@@ -2600,7 +2600,7 @@
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Lexi</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
@@ -2659,7 +2659,7 @@
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
@@ -2699,9 +2699,21 @@
       </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr"/>
-      <c r="N41" t="inlineStr"/>
-      <c r="O41" t="inlineStr"/>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>11)</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>Sonia</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P41" t="inlineStr"/>
       <c r="Q41" t="inlineStr"/>
       <c r="R41" t="inlineStr">
@@ -2770,11 +2782,7 @@
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr"/>
-      <c r="N43" t="inlineStr">
-        <is>
-          <t>7:00 AM START</t>
-        </is>
-      </c>
+      <c r="N43" t="inlineStr"/>
       <c r="O43" t="inlineStr"/>
       <c r="P43" t="inlineStr"/>
       <c r="Q43" t="inlineStr"/>
@@ -2820,7 +2828,7 @@
       <c r="M44" t="inlineStr"/>
       <c r="N44" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>6:30 AM START</t>
         </is>
       </c>
       <c r="O44" t="inlineStr"/>
@@ -2875,7 +2883,7 @@
       <c r="M45" t="inlineStr"/>
       <c r="N45" t="inlineStr">
         <is>
-          <t>US PETRO INC - LOVES PARK</t>
+          <t>MODAS-SCAN</t>
         </is>
       </c>
       <c r="O45" t="inlineStr"/>
@@ -2930,7 +2938,7 @@
       <c r="M46" t="inlineStr"/>
       <c r="N46" t="inlineStr">
         <is>
-          <t>TO FOLLOW</t>
+          <t>KELLEY #41, WINNEBAGO MOBIL</t>
         </is>
       </c>
       <c r="O46" t="inlineStr"/>
@@ -2990,7 +2998,7 @@
       <c r="M47" t="inlineStr"/>
       <c r="N47" t="inlineStr">
         <is>
-          <t>US PETRO INC - LOVES PARK</t>
+          <t>903 N ELIDA ST</t>
         </is>
       </c>
       <c r="O47" t="inlineStr"/>
@@ -3049,7 +3057,7 @@
       <c r="M48" t="inlineStr"/>
       <c r="N48" t="inlineStr">
         <is>
-          <t>(Pending Inventories - Will get the addresses by 10/15)</t>
+          <t>https://goo.gl/maps/2n1o2yip8H52</t>
         </is>
       </c>
       <c r="O48" t="inlineStr"/>
@@ -3094,7 +3102,11 @@
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr"/>
-      <c r="N49" t="inlineStr"/>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Please be careful to scan only product barcodes, and not the shelf scan tags  </t>
+        </is>
+      </c>
       <c r="O49" t="inlineStr"/>
       <c r="P49" t="inlineStr"/>
       <c r="Q49" t="inlineStr">
@@ -3132,21 +3144,9 @@
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="N50" t="inlineStr">
-        <is>
-          <t>Nate</t>
-        </is>
-      </c>
-      <c r="O50" t="inlineStr">
-        <is>
-          <t>Optima available, Equip</t>
-        </is>
-      </c>
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="inlineStr"/>
+      <c r="O50" t="inlineStr"/>
       <c r="P50" t="inlineStr"/>
       <c r="Q50" t="inlineStr">
         <is>
@@ -3201,15 +3201,19 @@
       <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
-        </is>
-      </c>
-      <c r="O51" t="inlineStr"/>
+          <t>Mike G</t>
+        </is>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="P51" t="inlineStr"/>
       <c r="Q51" t="inlineStr">
         <is>
@@ -3258,8 +3262,16 @@
       </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr"/>
-      <c r="N52" t="inlineStr"/>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>Emily L</t>
+        </is>
+      </c>
       <c r="O52" t="inlineStr"/>
       <c r="P52" t="inlineStr"/>
       <c r="Q52" t="inlineStr">
@@ -3309,8 +3321,16 @@
       </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr"/>
-      <c r="N53" t="inlineStr"/>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>Eva</t>
+        </is>
+      </c>
       <c r="O53" t="inlineStr"/>
       <c r="P53" t="inlineStr"/>
       <c r="Q53" t="inlineStr">
@@ -3365,10 +3385,14 @@
       </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr"/>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>4)</t>
+        </is>
+      </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>6:30 AM START</t>
+          <t>Laci</t>
         </is>
       </c>
       <c r="O54" t="inlineStr"/>
@@ -3424,10 +3448,14 @@
       </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="inlineStr"/>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>5)</t>
+        </is>
+      </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>MODAS-SCAN</t>
+          <t>Michael N</t>
         </is>
       </c>
       <c r="O55" t="inlineStr"/>
@@ -3471,10 +3499,14 @@
       </c>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="inlineStr"/>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>6)</t>
+        </is>
+      </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>KELLEY #41, WINNEBAGO MOBIL</t>
+          <t>Tina E</t>
         </is>
       </c>
       <c r="O56" t="inlineStr"/>
@@ -3515,11 +3547,7 @@
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
       <c r="M57" t="inlineStr"/>
-      <c r="N57" t="inlineStr">
-        <is>
-          <t>903 N ELIDA ST</t>
-        </is>
-      </c>
+      <c r="N57" t="inlineStr"/>
       <c r="O57" t="inlineStr"/>
       <c r="P57" t="inlineStr"/>
       <c r="Q57" t="inlineStr">
@@ -3570,11 +3598,7 @@
       </c>
       <c r="L58" t="inlineStr"/>
       <c r="M58" t="inlineStr"/>
-      <c r="N58" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/2n1o2yip8H52</t>
-        </is>
-      </c>
+      <c r="N58" t="inlineStr"/>
       <c r="O58" t="inlineStr"/>
       <c r="P58" t="inlineStr"/>
       <c r="Q58" t="inlineStr">
@@ -3625,11 +3649,7 @@
       </c>
       <c r="L59" t="inlineStr"/>
       <c r="M59" t="inlineStr"/>
-      <c r="N59" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Please be careful to scan only product barcodes, and not the shelf scan tags  </t>
-        </is>
-      </c>
+      <c r="N59" t="inlineStr"/>
       <c r="O59" t="inlineStr"/>
       <c r="P59" t="inlineStr"/>
       <c r="Q59" t="inlineStr">
@@ -3722,21 +3742,9 @@
       </c>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="N61" t="inlineStr">
-        <is>
-          <t>Mike G</t>
-        </is>
-      </c>
-      <c r="O61" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="inlineStr"/>
+      <c r="O61" t="inlineStr"/>
       <c r="P61" t="inlineStr"/>
       <c r="Q61" t="inlineStr"/>
       <c r="R61" t="inlineStr"/>
@@ -3769,16 +3777,8 @@
       </c>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="N62" t="inlineStr">
-        <is>
-          <t>Emily L</t>
-        </is>
-      </c>
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="inlineStr"/>
       <c r="O62" t="inlineStr"/>
       <c r="P62" t="inlineStr"/>
       <c r="Q62" t="inlineStr"/>
@@ -3812,16 +3812,8 @@
       </c>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
-      <c r="N63" t="inlineStr">
-        <is>
-          <t>Eva</t>
-        </is>
-      </c>
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="inlineStr"/>
       <c r="O63" t="inlineStr"/>
       <c r="P63" t="inlineStr"/>
       <c r="Q63" t="inlineStr"/>
@@ -3851,16 +3843,8 @@
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="inlineStr">
-        <is>
-          <t>4)</t>
-        </is>
-      </c>
-      <c r="N64" t="inlineStr">
-        <is>
-          <t>Laci</t>
-        </is>
-      </c>
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="inlineStr"/>
       <c r="O64" t="inlineStr"/>
       <c r="P64" t="inlineStr"/>
       <c r="Q64" t="inlineStr"/>
@@ -3890,16 +3874,8 @@
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="inlineStr">
-        <is>
-          <t>5)</t>
-        </is>
-      </c>
-      <c r="N65" t="inlineStr">
-        <is>
-          <t>Michael N</t>
-        </is>
-      </c>
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="inlineStr"/>
       <c r="O65" t="inlineStr"/>
       <c r="P65" t="inlineStr"/>
       <c r="Q65" t="inlineStr"/>
@@ -3929,16 +3905,8 @@
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="inlineStr">
-        <is>
-          <t>6)</t>
-        </is>
-      </c>
-      <c r="N66" t="inlineStr">
-        <is>
-          <t>Tina E</t>
-        </is>
-      </c>
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="inlineStr"/>
       <c r="O66" t="inlineStr"/>
       <c r="P66" t="inlineStr"/>
       <c r="Q66" t="inlineStr"/>
